--- a/biology/Botanique/Ulva_intestinalis/Ulva_intestinalis.xlsx
+++ b/biology/Botanique/Ulva_intestinalis/Ulva_intestinalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ulva intestinalis est une espèce d'algues vertes ubiquistes de la famille des Ulvaceae.
 Selon certains (notamment le NCBI ou le WoRMS), le genre Enteromorpha est non valide et les espèces qu'il contient sont à rapporter au genre Ulva.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ulva intestinalis se présente sous la forme d'un tube de 20 à 40 centimètres de longueur, de couleur verte et comportant des bulles de gaz qui lui permettent de se dresser. Elle pousse sur des fonds rocheux et caillouteux de la surface jusqu'à sept mètres de profondeur ce qui fait qu'à marée basse, son extrémité peut flotter à la surface de l'eau. On la rencontre aussi dans des trous d'eau alimentés par les projections des vagues.
 			Ulva intestinalis sur béton mouillé par un apport d'eau saumâtre et eutrophe (Wimereux, France).
@@ -547,9 +561,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été proposé de l'utiliser pour en extraire d'éventuelles molécules d'intérêt pour la médecine ou l'industrie, ou de l'utiliser comme espèce bioindicatrice[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été proposé de l'utiliser pour en extraire d'éventuelles molécules d'intérêt pour la médecine ou l'industrie, ou de l'utiliser comme espèce bioindicatrice.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Liste des formes et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (16 août 2017)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (16 août 2017) :
 variété Ulva intestinalis var. asexualis (Bliding) E.Taskin
 variété Ulva intestinalis var. crispa (Roth) C.Agardh, 1817
 variété Ulva intestinalis var. maxima C.Agardh
